--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -114,7 +114,7 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>4711291</t>
+    <t>4688633</t>
   </si>
   <si>
     <t>ABDOMINAL</t>
@@ -129,7 +129,7 @@
     <t>Abdomen</t>
   </si>
   <si>
-    <t>4711292</t>
+    <t>4688636</t>
   </si>
   <si>
     <t>ANKLE</t>
@@ -141,6 +141,9 @@
     <t>Ankle region structure</t>
   </si>
   <si>
+    <t>source-is-broader-than-target</t>
+  </si>
+  <si>
     <t>51636004</t>
   </si>
   <si>
@@ -153,7 +156,7 @@
     <t>Structure of right ankle</t>
   </si>
   <si>
-    <t>4711293</t>
+    <t>4688637</t>
   </si>
   <si>
     <t>APICAL</t>
@@ -165,7 +168,7 @@
     <t>Structure of precordium</t>
   </si>
   <si>
-    <t>4711294</t>
+    <t>4688696</t>
   </si>
   <si>
     <t>AV FISTULA (ARTERIOVENOUS FISTULA)</t>
@@ -177,7 +180,7 @@
     <t>Arteriovenous fistula</t>
   </si>
   <si>
-    <t>4711295</t>
+    <t>4688640</t>
   </si>
   <si>
     <t>AXILLARY</t>
@@ -213,7 +216,7 @@
     <t>Structure of right axillary region</t>
   </si>
   <si>
-    <t>4711296</t>
+    <t>4688642</t>
   </si>
   <si>
     <t>BILATERAL PERIPHERALS</t>
@@ -237,7 +240,7 @@
     <t>Structure of peripheral artery</t>
   </si>
   <si>
-    <t>4711297</t>
+    <t>4688643</t>
   </si>
   <si>
     <t>BRACHIAL</t>
@@ -261,7 +264,7 @@
     <t>Structure of right brachial artery</t>
   </si>
   <si>
-    <t>4711298</t>
+    <t>4688644</t>
   </si>
   <si>
     <t>CALF</t>
@@ -285,7 +288,7 @@
     <t>Structure of calf of right lower leg</t>
   </si>
   <si>
-    <t>4711299</t>
+    <t>4688645</t>
   </si>
   <si>
     <t>CAROTID</t>
@@ -309,7 +312,7 @@
     <t>Structure of right carotid artery</t>
   </si>
   <si>
-    <t>4711300</t>
+    <t>4688648</t>
   </si>
   <si>
     <t>CORE</t>
@@ -321,7 +324,7 @@
     <t>OE, not site</t>
   </si>
   <si>
-    <t>4711301</t>
+    <t>4688651</t>
   </si>
   <si>
     <t>DORSALIS PEDIS</t>
@@ -345,7 +348,7 @@
     <t>Structure of right dorsalis pedis artery</t>
   </si>
   <si>
-    <t>4711302</t>
+    <t>4688655</t>
   </si>
   <si>
     <t>FEMORAL</t>
@@ -369,7 +372,7 @@
     <t>Structure of right femoral artery</t>
   </si>
   <si>
-    <t>4711303</t>
+    <t>4688656</t>
   </si>
   <si>
     <t>HEAD</t>
@@ -381,7 +384,7 @@
     <t>Head structure</t>
   </si>
   <si>
-    <t>4708118</t>
+    <t>4697470</t>
   </si>
   <si>
     <t>HIP</t>
@@ -405,7 +408,7 @@
     <t>Right hip region structure</t>
   </si>
   <si>
-    <t>4711304</t>
+    <t>4688689</t>
   </si>
   <si>
     <t>KNEE</t>
@@ -429,7 +432,7 @@
     <t>Structure of right knee region</t>
   </si>
   <si>
-    <t>4711305</t>
+    <t>4688657</t>
   </si>
   <si>
     <t>L ARM (LEFT ARM)</t>
@@ -441,7 +444,7 @@
     <t>Structure of left upper limb</t>
   </si>
   <si>
-    <t>4711306</t>
+    <t>4688658</t>
   </si>
   <si>
     <t>L LEG (LEFT LEG)</t>
@@ -453,7 +456,7 @@
     <t>Structure of left lower limb</t>
   </si>
   <si>
-    <t>4711307</t>
+    <t>4688662</t>
   </si>
   <si>
     <t>LOWER ARM</t>
@@ -477,7 +480,7 @@
     <t>Structure of right forearm</t>
   </si>
   <si>
-    <t>4711333</t>
+    <t>4688686</t>
   </si>
   <si>
     <t>NECK</t>
@@ -489,7 +492,7 @@
     <t>Neck structure</t>
   </si>
   <si>
-    <t>4711336</t>
+    <t>4500642</t>
   </si>
   <si>
     <t>ORAL</t>
@@ -501,7 +504,7 @@
     <t>Mouth region structure</t>
   </si>
   <si>
-    <t>4711341</t>
+    <t>4688672</t>
   </si>
   <si>
     <t>PERIPHERAL</t>
@@ -510,7 +513,7 @@
     <t>OE, not body structure</t>
   </si>
   <si>
-    <t>4711342</t>
+    <t>4688673</t>
   </si>
   <si>
     <t>POPLITEAL</t>
@@ -534,7 +537,7 @@
     <t>Structure of right popliteal artery</t>
   </si>
   <si>
-    <t>4711344</t>
+    <t>4688675</t>
   </si>
   <si>
     <t>POSTERIOR TIBIAL</t>
@@ -558,7 +561,7 @@
     <t>Structure of right posterior tibial artery</t>
   </si>
   <si>
-    <t>4711349</t>
+    <t>4688676</t>
   </si>
   <si>
     <t>R ARM (RIGHT ARM)</t>
@@ -570,7 +573,7 @@
     <t>Structure of right upper limb</t>
   </si>
   <si>
-    <t>4711350</t>
+    <t>4688677</t>
   </si>
   <si>
     <t>R LEG (RIGHT LEG)</t>
@@ -582,7 +585,7 @@
     <t>Structure of right lower limb</t>
   </si>
   <si>
-    <t>4711351</t>
+    <t>4688678</t>
   </si>
   <si>
     <t>RADIAL</t>
@@ -606,7 +609,7 @@
     <t>Structure of right radial artery</t>
   </si>
   <si>
-    <t>4711352</t>
+    <t>4688679</t>
   </si>
   <si>
     <t>RECTAL</t>
@@ -618,7 +621,7 @@
     <t>Rectum structure</t>
   </si>
   <si>
-    <t>4711358</t>
+    <t>4688704</t>
   </si>
   <si>
     <t>SKIN</t>
@@ -630,7 +633,7 @@
     <t>Skin structure</t>
   </si>
   <si>
-    <t>4710824</t>
+    <t>4537028</t>
   </si>
   <si>
     <t>TEMPORAL</t>
@@ -642,7 +645,7 @@
     <t>Structure of temporal region</t>
   </si>
   <si>
-    <t>4711365</t>
+    <t>4688708</t>
   </si>
   <si>
     <t>THIGH</t>
@@ -666,7 +669,7 @@
     <t>Structure of right thigh</t>
   </si>
   <si>
-    <t>4710794</t>
+    <t>4688712</t>
   </si>
   <si>
     <t>TYMPANIC</t>
@@ -690,7 +693,7 @@
     <t>Structure of right tympanic membrane</t>
   </si>
   <si>
-    <t>4710795</t>
+    <t>4688713</t>
   </si>
   <si>
     <t>ULNAR</t>
@@ -714,7 +717,7 @@
     <t>Structure of right ulnar artery</t>
   </si>
   <si>
-    <t>4710796</t>
+    <t>4688714</t>
   </si>
   <si>
     <t>UPPER ARM</t>
@@ -738,7 +741,7 @@
     <t>Right upper arm structure</t>
   </si>
   <si>
-    <t>4710822</t>
+    <t>4688717</t>
   </si>
   <si>
     <t>WRIST</t>
@@ -1110,13 +1113,13 @@
         <v>39</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1127,1203 +1130,1203 @@
         <v>39</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="251">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -991,28 +994,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>7</v>
@@ -1020,7 +1023,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
@@ -1039,1294 +1042,1294 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsSite.xlsx
+++ b/docs/VF-VitalsSite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
